--- a/biology/Zoologie/Euprosthenops_proximus/Euprosthenops_proximus.xlsx
+++ b/biology/Zoologie/Euprosthenops_proximus/Euprosthenops_proximus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euprosthenops proximus est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euprosthenops proximus est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Angola, au Congo-Kinshasa, au Rwanda, en Tanzanie, en Éthiopie et en Côte d'Ivoire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Angola, au Congo-Kinshasa, au Rwanda, en Tanzanie, en Éthiopie et en Côte d'Ivoire.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 16 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 16 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 19/10/2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 19/10/2022) :
 Euprosthenops proximus maximus Blandin, 1976 de Côte d'Ivoire
 Euprosthenops proximus proximus Lessert, 1916</t>
         </is>
@@ -605,11 +623,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Lessert en 1916.
 La sous-espèce Euprosthenops proximus maximus a été décrite par Blandin en 1976.
-Euprosthenops hartmanni[3] a été placée en synonymie par Blandin en 1976[4].
+Euprosthenops hartmanni a été placée en synonymie par Blandin en 1976.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lessert, 1916 : « Araignées du Kilimandjaro et du Merou (suite). 2. Pisauridae. » Revue Suisse de Zoologie, vol. 24, p. 565-620 (texte intégral).
 Blandin, 1976 : « Études sur les Pisauridae africaines IV. Les espèces du genre Euprosthenops Pocock, 1897 (Araneae - Pisauridae - Pisaurinae). » Revue Zoologique Africaine, vol. 90, p. 63-88 (texte intégral).</t>
